--- a/AssetFiles/levels.xlsx
+++ b/AssetFiles/levels.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Unity Projects\archer-defense-td\AssetFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23778A55-3C8B-43C1-B7A6-2D02F27DCDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4345EE-3F29-4B7B-9A18-B274E6E57130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level2" sheetId="1" r:id="rId1"/>
+    <sheet name="Level3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="28">
   <si>
     <t>Wave 1</t>
   </si>
@@ -97,13 +98,25 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>4xArcher</t>
+  </si>
+  <si>
+    <t>~70s</t>
+  </si>
+  <si>
+    <t>5xArcher</t>
+  </si>
+  <si>
+    <t>~95s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +171,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -203,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,57 +239,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,6 +379,55 @@
         <a:xfrm>
           <a:off x="1076325" y="276225"/>
           <a:ext cx="3429000" cy="1935058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1287537</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546423</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C085B-1145-DC34-53A4-760A6E99EC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1287537" y="209551"/>
+          <a:ext cx="3421311" cy="1933574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,11 +704,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A16:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="13" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="16" ySplit="13" topLeftCell="Q17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,10 +720,10 @@
   </cols>
   <sheetData>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -623,131 +731,106 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>24</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="11">
-        <v>3</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>36</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -758,7 +841,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -766,19 +849,19 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -786,19 +869,19 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4">
         <v>4</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0</v>
       </c>
       <c r="AC31" t="s">
@@ -809,87 +892,87 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
         <v>4</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>40</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9">
-        <v>3</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>40</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="9">
-        <v>3</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>60</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
         <v>4</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +985,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -910,155 +993,155 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="B42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4">
         <v>5</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+      <c r="B44" s="14">
         <v>15</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="7">
         <v>5</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="16">
+      <c r="B45" s="13">
         <v>30</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4">
         <v>5</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+      <c r="B46" s="14">
         <v>40</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
         <v>5</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16">
+      <c r="B47" s="13">
         <v>55</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>2</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="16">
+      <c r="B48" s="13">
         <v>55</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5">
-        <v>2</v>
-      </c>
-      <c r="E48" s="19" t="s">
+      <c r="C48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="16">
+      <c r="B49" s="13">
         <v>55</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="5">
-        <v>2</v>
-      </c>
-      <c r="E49" s="14" t="s">
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="16">
+      <c r="B50" s="13">
         <v>55</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5">
-        <v>2</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="C50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1071,7 +1154,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1079,189 +1162,189 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="B56" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="16">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3</v>
-      </c>
-      <c r="E57" s="19" t="s">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="16">
-        <v>0</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5">
-        <v>3</v>
-      </c>
-      <c r="E58" s="19" t="s">
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="17">
+      <c r="B59" s="14">
         <v>15</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="9">
-        <v>3</v>
-      </c>
-      <c r="E59" s="13" t="s">
+      <c r="C59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="17">
+      <c r="B60" s="14">
         <v>15</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="9">
-        <v>3</v>
-      </c>
-      <c r="E60" s="13" t="s">
+      <c r="C60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="16">
+      <c r="B61" s="13">
         <v>30</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="16">
+      <c r="B62" s="13">
         <v>30</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4">
         <v>5</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="17">
+      <c r="B63" s="14">
         <v>45</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="9">
-        <v>3</v>
-      </c>
-      <c r="E63" s="18" t="s">
+      <c r="C63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="17">
+      <c r="B64" s="14">
         <v>45</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="9">
-        <v>3</v>
-      </c>
-      <c r="E64" s="18" t="s">
+      <c r="C64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="17">
+      <c r="B65" s="14">
         <v>45</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="9">
-        <v>3</v>
-      </c>
-      <c r="E65" s="13" t="s">
+      <c r="C65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+      <c r="B66" s="14">
         <v>45</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="9">
-        <v>3</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="C66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1357,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1283,269 +1366,259 @@
       <c r="G71"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="15" t="s">
+      <c r="B72" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="21"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="16">
-        <v>0</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4">
         <v>4</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="22"/>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="16">
-        <v>0</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4">
         <v>4</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="22"/>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="17">
+      <c r="B75" s="14">
         <v>15</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="9">
+      <c r="C75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="7">
         <v>4</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="9">
-        <v>0</v>
-      </c>
-      <c r="G75" s="22"/>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="17">
+      <c r="B76" s="14">
         <v>15</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="7">
         <v>4</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="9">
-        <v>0</v>
-      </c>
-      <c r="G76" s="22"/>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="16">
+      <c r="B77" s="13">
         <v>30</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="5">
-        <v>6</v>
-      </c>
-      <c r="E77" s="19" t="s">
+      <c r="C77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4">
+        <v>6</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="22"/>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="16">
+      <c r="B78" s="13">
         <v>30</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="5">
-        <v>6</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4">
+        <v>6</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="22"/>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="17">
+      <c r="B79" s="14">
         <v>45</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="9">
-        <v>3</v>
-      </c>
-      <c r="E79" s="18" t="s">
+      <c r="C79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="7">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="9">
-        <v>0</v>
-      </c>
-      <c r="G79" s="22"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="17">
+      <c r="B80" s="14">
         <v>45</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="9">
-        <v>3</v>
-      </c>
-      <c r="E80" s="18" t="s">
+      <c r="C80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="7">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80" s="22"/>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="17">
+      <c r="B81" s="14">
         <v>45</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="9">
-        <v>3</v>
-      </c>
-      <c r="E81" s="13" t="s">
+      <c r="C81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7">
+        <v>3</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22"/>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="17">
+      <c r="B82" s="14">
         <v>45</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="9">
-        <v>3</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="C82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="9">
-        <v>0</v>
-      </c>
-      <c r="G82" s="22"/>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="16">
+      <c r="B83" s="13">
         <v>50</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="5">
-        <v>3</v>
-      </c>
-      <c r="E83" s="19" t="s">
+      <c r="C83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>0</v>
       </c>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="17">
+      <c r="B84" s="14">
         <v>55</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="9">
-        <v>3</v>
-      </c>
-      <c r="E84" s="18" t="s">
+      <c r="C84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="7">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="16">
+      <c r="B85" s="13">
         <v>60</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="5">
-        <v>3</v>
-      </c>
-      <c r="E85" s="14" t="s">
+      <c r="C85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="17">
+      <c r="B86" s="14">
         <v>65</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="9">
-        <v>3</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="C86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="7">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1562,4 +1635,1034 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003412FC-4334-41E6-AF9F-90B4A8019739}">
+  <dimension ref="A16:AD90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="16" ySplit="13" topLeftCell="Q71" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="7" max="7" width="28" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="30">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="29">
+        <v>3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="29">
+        <v>2</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3</v>
+      </c>
+      <c r="F34" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="30">
+        <v>3</v>
+      </c>
+      <c r="F35" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>20</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="29">
+        <v>2</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="30">
+        <v>1</v>
+      </c>
+      <c r="F37" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>45</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29">
+        <v>1</v>
+      </c>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7">
+        <v>45</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="29">
+        <v>3</v>
+      </c>
+      <c r="F39" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="4">
+        <v>50</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="30">
+        <v>1</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5</v>
+      </c>
+      <c r="E47" s="29">
+        <v>2</v>
+      </c>
+      <c r="F47" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5</v>
+      </c>
+      <c r="E48" s="30">
+        <v>3</v>
+      </c>
+      <c r="F48" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="30">
+        <v>3</v>
+      </c>
+      <c r="F49" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>25</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7</v>
+      </c>
+      <c r="E50" s="29">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>30</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>7</v>
+      </c>
+      <c r="E51" s="30">
+        <v>2</v>
+      </c>
+      <c r="F51" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>35</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <v>7</v>
+      </c>
+      <c r="E52" s="29">
+        <v>3</v>
+      </c>
+      <c r="F52" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>50</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4</v>
+      </c>
+      <c r="E53" s="30">
+        <v>1</v>
+      </c>
+      <c r="F53" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="7">
+        <v>55</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4</v>
+      </c>
+      <c r="E54" s="29">
+        <v>2</v>
+      </c>
+      <c r="F54" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="4">
+        <v>60</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4</v>
+      </c>
+      <c r="E55" s="30">
+        <v>3</v>
+      </c>
+      <c r="F55" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="7">
+        <v>7</v>
+      </c>
+      <c r="E62" s="29">
+        <v>3</v>
+      </c>
+      <c r="F62" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="30">
+        <v>1</v>
+      </c>
+      <c r="F63" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>20</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="30">
+        <v>2</v>
+      </c>
+      <c r="F64" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>35</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7">
+        <v>7</v>
+      </c>
+      <c r="E65" s="29">
+        <v>3</v>
+      </c>
+      <c r="F65" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>45</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4">
+        <v>7</v>
+      </c>
+      <c r="E66" s="30">
+        <v>2</v>
+      </c>
+      <c r="F66" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>45</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10</v>
+      </c>
+      <c r="E67" s="30">
+        <v>2</v>
+      </c>
+      <c r="F67" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="7">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7">
+        <v>12</v>
+      </c>
+      <c r="E74" s="29">
+        <v>2</v>
+      </c>
+      <c r="F74" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7">
+        <v>0</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="7">
+        <v>8</v>
+      </c>
+      <c r="E75" s="29">
+        <v>2</v>
+      </c>
+      <c r="F75" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4">
+        <v>7</v>
+      </c>
+      <c r="E76" s="30">
+        <v>1</v>
+      </c>
+      <c r="F76" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="7">
+        <v>20</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7">
+        <v>10</v>
+      </c>
+      <c r="E77" s="29">
+        <v>3</v>
+      </c>
+      <c r="F77" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>35</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4">
+        <v>12</v>
+      </c>
+      <c r="E78" s="30">
+        <v>2</v>
+      </c>
+      <c r="F78" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>35</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8</v>
+      </c>
+      <c r="E79" s="30">
+        <v>2</v>
+      </c>
+      <c r="F79" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
+        <v>45</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="7">
+        <v>7</v>
+      </c>
+      <c r="E80" s="29">
+        <v>3</v>
+      </c>
+      <c r="F80" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="4">
+        <v>55</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4">
+        <v>10</v>
+      </c>
+      <c r="E81" s="30">
+        <v>1</v>
+      </c>
+      <c r="F81" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="7">
+        <v>60</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="7">
+        <v>12</v>
+      </c>
+      <c r="E82" s="29">
+        <v>2</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="23"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>